--- a/data/trans_dic/P25A_11_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_11_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos depresivos</t>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,6</t>
+          <t>2,86; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,74</t>
+          <t>1,87; 6,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,77</t>
+          <t>2,08; 5,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,11; 81,46</t>
+          <t>3,4; 6,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,01</t>
+          <t>4,6; 8,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,66</t>
+          <t>2,2; 5,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,87</t>
+          <t>3,98; 7,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,42; 70,49</t>
+          <t>4,64; 8,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,35</t>
+          <t>5,6; 8,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,12</t>
+          <t>7,92; 12,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,32</t>
+          <t>8,84; 13,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,2; 70,65</t>
+          <t>6,43; 11,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 6,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 6,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 6,71</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 8,86</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 10,03</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 7,81</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,04%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,26</t>
+          <t>1,09; 3,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,97</t>
+          <t>1,86; 7,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,88</t>
+          <t>1,29; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 92,33</t>
+          <t>1,39; 5,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,5</t>
+          <t>3,94; 9,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,09</t>
+          <t>1,8; 5,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,67</t>
+          <t>3,19; 8,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,51; 81,27</t>
+          <t>4,39; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,95</t>
+          <t>5,37; 11,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,0</t>
+          <t>5,5; 14,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,06</t>
+          <t>7,67; 16,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,64; 81,32</t>
+          <t>8,59; 15,06</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 5,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 6,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 7,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 8,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,63</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 9,22</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,16</t>
+          <t>1,87; 9,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,78</t>
+          <t>2,66; 11,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,94</t>
+          <t>1,63; 8,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 19,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 13,08</t>
+          <t>1,83; 9,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,57</t>
+          <t>3,16; 11,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,34; 12,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 8,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 12,66</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 9,97</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>1,68; 9,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 8,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 10,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 7,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 8,25</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,04</t>
+          <t>2,52; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,05</t>
+          <t>2,59; 5,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,96</t>
+          <t>2,1; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,14; 79,83</t>
+          <t>3,14; 5,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,18</t>
+          <t>4,73; 8,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,43</t>
+          <t>2,66; 5,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,07</t>
+          <t>4,27; 7,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,63; 68,85</t>
+          <t>5,15; 7,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,57</t>
+          <t>5,76; 8,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,13</t>
+          <t>7,89; 11,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,65</t>
+          <t>9,12; 13,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,86; 69,79</t>
+          <t>7,61; 11,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 6,16</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 6,08</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 8,26</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 9,83</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 7,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74278</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58506</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55981</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14337</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>60466</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98926</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>109755</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129759</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23430</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25444</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>153691</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>173204</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>168262</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>185740</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>34414</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>39781</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>214158</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>47218; 128076</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30861; 109308</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34208; 89253</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7803; 15044</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10478; 18905</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35998; 96759</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71786; 131714</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84617; 148552</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>101786; 163126</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18793; 28958</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20893; 30957</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>115555; 199657</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>133069; 226848</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>129651; 220972</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>145853; 232332</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>28704; 41330</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>33603; 46582</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>170964; 268089</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27760</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45928</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32359</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4424</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43426</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69062</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82909</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>101749</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7677</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>158650</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96821</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>128837</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>134107</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7945</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>12101</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>202075</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14942; 49581</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25591; 106290</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17770; 52168</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1008; 4165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2863; 7112</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24871; 69294</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43893; 121452</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60165; 113500</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74062; 162749</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3606; 9288</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5118; 11116</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>118749; 208209</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>68992; 153967</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>96393; 181030</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>99708; 195556</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5379; 11709</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8821; 16199</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>151621; 255098</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19319</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24726</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17567</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20512</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26179</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33359</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18943</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18550</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>45499</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>58085</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36510</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>39062</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7889; 41508</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11235; 46950</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6895; 36844</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7727; 42240</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12949; 46935</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17774; 53184</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9094; 34480</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6899; 39499</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>26324; 72946</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37451; 88204</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20296; 59455</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>20732; 68658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>121356</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>129160</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>105907</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13080</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18761</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>124405</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>194167</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>226023</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>250451</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29279</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>33121</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>330891</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>315524</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>355183</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>356358</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>42359</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>51882</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>455295</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>86732; 181895</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>89307; 192556</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72283; 144224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9471; 17648</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14218; 24117</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91527; 173045</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>153115; 255135</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>185512; 270141</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>207997; 315365</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23894; 35551</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27641; 39552</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>273195; 398518</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>254739; 394505</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>296687; 434439</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>299546; 428989</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>35986; 49948</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>44895; 59353</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>384474; 533405</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
